--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1077000.287781022</v>
+        <v>-1079481.20760648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>94.33668393246754</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579951</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>217.216860348093</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>37.64109960422429</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.378643914041063</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>245.7593488078147</v>
+        <v>242.2975887068568</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1670,10 +1670,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>18.14661351567551</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>61.05800760518728</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>168.4481212831629</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245672</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.022686933901</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>9.362935956136671</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503345</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085006</v>
+        <v>134.9383736358141</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721213</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330911</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860167</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411899</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432822</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654149</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>260.0782955518955</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>316.3169795846659</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085006</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721213</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330911</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860167</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432823</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>178.273436320687</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>208.0533602654135</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290872</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249325</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085006</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721213</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5302192482733</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860167</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432823</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>207.0890643413393</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
@@ -3484,13 +3484,13 @@
         <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.1068713883834</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>111.8803261135836</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>174.1560346887823</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>120.5216066929744</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>119.3005938533748</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
@@ -3961,7 +3961,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349169</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>2154.822967855899</v>
       </c>
       <c r="C11" t="n">
         <v>1813.052518175211</v>
@@ -5027,16 +5027,16 @@
         <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="V11" t="n">
-        <v>2844.310569991356</v>
+        <v>2938.636400312143</v>
       </c>
       <c r="W11" t="n">
-        <v>2518.733981980965</v>
+        <v>2613.059812301753</v>
       </c>
       <c r="X11" t="n">
-        <v>2172.460290979609</v>
+        <v>2613.059812301753</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>2250.112547585664</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609356</v>
+        <v>572.7690351314518</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609356</v>
+        <v>572.7690351314518</v>
       </c>
       <c r="D13" t="n">
-        <v>295.3880654083235</v>
+        <v>449.8444629788402</v>
       </c>
       <c r="E13" t="n">
-        <v>174.6670390856541</v>
+        <v>329.1234366561708</v>
       </c>
       <c r="F13" t="n">
-        <v>174.6670390856541</v>
+        <v>209.4255564179842</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>68.9147870524269</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003741</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5242,7 +5242,7 @@
         <v>766.3695470152581</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314517</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1677.500447117868</v>
+        <v>1711.919094425212</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.258680645327</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.185049298301</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
-        <v>739.5888639597802</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5291,7 +5291,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5306,22 +5306,22 @@
         <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845702</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835312</v>
+        <v>2434.274131945698</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.447711833956</v>
+        <v>2434.274131945698</v>
       </c>
       <c r="Y14" t="n">
-        <v>1677.500447117868</v>
+        <v>2071.32686722961</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.3446374711297</v>
+        <v>781.5713293855548</v>
       </c>
       <c r="C16" t="n">
-        <v>636.6005218029464</v>
+        <v>639.8272137173716</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029464</v>
+        <v>516.9026415647596</v>
       </c>
       <c r="E16" t="n">
-        <v>515.879495480277</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420901</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765327</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>2078.827353901779</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="T16" t="n">
-        <v>2078.827353901779</v>
+        <v>1945.927560887784</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.916554287146</v>
+        <v>1684.016761273151</v>
       </c>
       <c r="V16" t="n">
-        <v>1589.424133340983</v>
+        <v>1456.524340326988</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.199030563746</v>
+        <v>1194.299237549751</v>
       </c>
       <c r="X16" t="n">
-        <v>1126.401546925452</v>
+        <v>993.5017539114573</v>
       </c>
       <c r="Y16" t="n">
-        <v>932.8010350416457</v>
+        <v>799.9012420276509</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1224.583240809387</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>913.4366884189407</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F17" t="n">
-        <v>577.0924838371302</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G17" t="n">
-        <v>236.6617338899237</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872278</v>
+        <v>632.1517731235555</v>
       </c>
       <c r="C19" t="n">
-        <v>474.827296267118</v>
+        <v>537.8572904034456</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625794</v>
+        <v>462.3823511989069</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879833</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729436</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062877</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064787</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356235</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454033</v>
+        <v>885.3094166817312</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096704</v>
+        <v>739.1585377459982</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1540.080872577402</v>
       </c>
       <c r="D20" t="n">
-        <v>1256.456874178449</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>945.3103217880018</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>608.9661172061915</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
@@ -5786,7 +5786,7 @@
         <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
         <v>2445.183887219624</v>
@@ -5829,28 +5829,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872278</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>474.827296267118</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625794</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879833</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.196093406041</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952113</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729436</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062877</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064787</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356235</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454033</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096704</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349344</v>
+        <v>973.0946095349351</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531245</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5996,37 +5996,37 @@
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516336</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575118</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454455</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
         <v>3361.584312811633</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567315</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6063,7 +6063,7 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130996</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138543</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937445</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892058</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146098</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7283489244965</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.637218370685</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633994</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6187,10 +6187,10 @@
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720299</v>
+        <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362969</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.992678104633</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1928.524582776557</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835339</v>
+        <v>2852.29557928546</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6397,19 +6397,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,16 +6418,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668916</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572844</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6637,25 +6637,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668916</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1928.524582776559</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,28 +6856,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464986</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307346</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810578</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170924</v>
+        <v>698.2736995386225</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>628.008951184559</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>477.8923117722233</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9803925153276</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X37" t="n">
-        <v>649.9908416173103</v>
+        <v>903.3718743647055</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734886</v>
+        <v>781.2507297950187</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.39124739121</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7205,16 +7205,16 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7251,10 +7251,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7263,40 +7263,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>598.2565075725903</v>
+        <v>642.2355359389139</v>
       </c>
       <c r="C40" t="n">
-        <v>527.9917592185268</v>
+        <v>571.9707875848504</v>
       </c>
       <c r="D40" t="n">
-        <v>476.5465543800345</v>
+        <v>520.5255827463582</v>
       </c>
       <c r="E40" t="n">
-        <v>427.3048953714849</v>
+        <v>471.2839237378085</v>
       </c>
       <c r="F40" t="n">
-        <v>379.0863824474179</v>
+        <v>423.0654108137416</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221369</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1469.863020118521</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1279.431587818008</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1123.418534185965</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>932.6727987228473</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X40" t="n">
-        <v>803.3546823986734</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y40" t="n">
-        <v>681.2335378289866</v>
+        <v>725.2125661953103</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,16 +7421,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7500,13 +7500,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.4050786964422</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1403303423787</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D43" t="n">
-        <v>430.6951255038865</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>381.4534664953368</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>234.5635189974264</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7597,22 +7597,22 @@
         <v>1744.44964124669</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U43" t="n">
-        <v>1430.923028089547</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V43" t="n">
-        <v>1274.909974457503</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W43" t="n">
-        <v>1084.164238994386</v>
+        <v>985.4928044205426</v>
       </c>
       <c r="X43" t="n">
-        <v>954.846122670212</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.0535435266819</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7725,25 +7725,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>444.8926667912274</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>430.6660820368721</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919198</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153276</v>
+        <v>835.3471215411923</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911538</v>
+        <v>706.0290052170184</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214671</v>
+        <v>583.9078606473317</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430641</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729022</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389622</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333087</v>
+        <v>181.085632533306</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830261</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.830155438401</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586601</v>
+        <v>190.8908035586579</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266136</v>
+        <v>192.010383626612</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.656200187598</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372543</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672287</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253609</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677815</v>
+        <v>92.30246558677597</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835975</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798336</v>
+        <v>105.311348779832</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615465</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564666</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085235</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140786</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530932</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662711</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784335</v>
+        <v>339.814425378434</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>343.5485285966298</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665447</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473924</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>343.5485285966311</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544156</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719373</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.4770111438866</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>83.61525153491549</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>101.4645620676775</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>115.4562244131532</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>92.59339637606644</v>
+        <v>96.0551564770243</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.7652200791353</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
-        <v>101.7908711391282</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>52.26435989843847</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>167.7369527970463</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>20.70946286306847</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>20.70946286306842</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1070031.88061246</v>
+        <v>1070031.880612461</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151114</v>
+        <v>245782.9016151115</v>
       </c>
       <c r="C2" t="n">
         <v>245782.9016151114</v>
@@ -26320,28 +26320,28 @@
         <v>245789.600941784</v>
       </c>
       <c r="E2" t="n">
-        <v>218862.0002714922</v>
+        <v>218862.0002714925</v>
       </c>
       <c r="F2" t="n">
-        <v>218862.0002714923</v>
+        <v>218862.0002714925</v>
       </c>
       <c r="G2" t="n">
+        <v>238359.2463739609</v>
+      </c>
+      <c r="H2" t="n">
         <v>238359.246373961</v>
-      </c>
-      <c r="H2" t="n">
-        <v>238359.2463739609</v>
       </c>
       <c r="I2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="J2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="K2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="L2" t="n">
         <v>246312.5309592847</v>
-      </c>
-      <c r="K2" t="n">
-        <v>246312.5309592847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>246312.5309592849</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592852</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552038</v>
+        <v>59764.55367552373</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163634</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487433</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983357</v>
+        <v>22821.4678298336</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.4330217971</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.427895466</v>
+        <v>430603.4278954647</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364973</v>
+        <v>40024.16194364979</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364975</v>
+        <v>40024.16194364979</v>
       </c>
       <c r="G4" t="n">
+        <v>77052.32230509199</v>
+      </c>
+      <c r="H4" t="n">
         <v>77052.32230509204</v>
       </c>
-      <c r="H4" t="n">
-        <v>77052.32230509206</v>
-      </c>
       <c r="I4" t="n">
-        <v>90617.51027754392</v>
+        <v>90617.51027754387</v>
       </c>
       <c r="J4" t="n">
+        <v>88960.9551969959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>88960.95519699583</v>
+      </c>
+      <c r="L4" t="n">
         <v>88960.95519699586</v>
       </c>
-      <c r="K4" t="n">
-        <v>88960.95519699591</v>
-      </c>
-      <c r="L4" t="n">
-        <v>88960.95519699588</v>
-      </c>
       <c r="M4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="O4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="P4" t="n">
         <v>92183.89891818176</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92183.89891818175</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318663</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
@@ -26491,7 +26491,7 @@
         <v>85736.52830184209</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240244.6889338537</v>
+        <v>-240249.1025117218</v>
       </c>
       <c r="C6" t="n">
-        <v>-240244.6889338537</v>
+        <v>-240249.1025117218</v>
       </c>
       <c r="D6" t="n">
-        <v>-279727.2860610686</v>
+        <v>-279731.6438112166</v>
       </c>
       <c r="E6" t="n">
-        <v>-986970.6242006181</v>
+        <v>-987199.378623013</v>
       </c>
       <c r="F6" t="n">
-        <v>102268.3479630163</v>
+        <v>102039.593540618</v>
       </c>
       <c r="G6" t="n">
-        <v>43208.17164877968</v>
+        <v>43141.8942772356</v>
       </c>
       <c r="H6" t="n">
-        <v>80788.28094365408</v>
+        <v>80722.00357210987</v>
       </c>
       <c r="I6" t="n">
         <v>47137.02455006541</v>
       </c>
       <c r="J6" t="n">
-        <v>42564.2010656858</v>
+        <v>42564.2010656857</v>
       </c>
       <c r="K6" t="n">
-        <v>67973.63408748264</v>
+        <v>67973.63408748293</v>
       </c>
       <c r="L6" t="n">
-        <v>30393.52479260876</v>
+        <v>30393.5247926087</v>
       </c>
       <c r="M6" t="n">
-        <v>-130558.0652578709</v>
+        <v>-130558.0652578706</v>
       </c>
       <c r="N6" t="n">
-        <v>71610.03473485376</v>
+        <v>71610.03473485359</v>
       </c>
       <c r="O6" t="n">
         <v>71610.0347348536</v>
       </c>
       <c r="P6" t="n">
-        <v>71610.03473485356</v>
+        <v>71610.03473485353</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790361</v>
+        <v>69.78465283790752</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,10 +26808,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810295</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185927</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951242</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790361</v>
+        <v>69.78465283790752</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755395</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758519</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959705</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185927</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104731</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780182</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036575</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672127</v>
+        <v>84.22861846672099</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987555</v>
+        <v>90.83829126987503</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.4622088851912</v>
+        <v>84.46220888519071</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990921</v>
+        <v>7.649035050990102</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317095</v>
+        <v>75.62456067317035</v>
       </c>
       <c r="R10" t="n">
-        <v>171.635114443788</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207385</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075432</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075486</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075568</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>11.49558901075488</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571911</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571911</v>
+        <v>11.49558901075554</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.47778196371141</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.14548214544459</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
-        <v>45.39291458738685</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30618,22 +30618,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565339</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>46.72521440565339</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30666,22 +30666,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371095</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30900,16 +30900,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -30918,10 +30918,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413208</v>
+        <v>0.2805413179413365</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366552</v>
+        <v>2.873093772366714</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993278</v>
+        <v>10.81556915993339</v>
       </c>
       <c r="J8" t="n">
-        <v>23.8105936836222</v>
+        <v>23.81059368362353</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207832</v>
+        <v>35.68590767208032</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102502</v>
+        <v>44.2715240310275</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396399</v>
+        <v>49.26060069396674</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356477</v>
+        <v>50.05768871356757</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328576</v>
+        <v>47.26805598328841</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219660939</v>
+        <v>40.34219219661165</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783583</v>
+        <v>30.29530624783753</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313151</v>
+        <v>17.6225535631325</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587854</v>
+        <v>6.392835282588212</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288133</v>
+        <v>1.228069619288201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530566</v>
+        <v>0.02244330543530692</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796417</v>
+        <v>0.1501028381796501</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840224</v>
+        <v>1.449677410840305</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693806</v>
+        <v>5.168014384694095</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790687</v>
+        <v>14.18142647906949</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710469</v>
+        <v>24.23831663710605</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264546</v>
+        <v>32.59140791264728</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665746</v>
+        <v>38.03263579665959</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655515</v>
+        <v>39.03924649655734</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084694</v>
+        <v>35.71328360847141</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449668</v>
+        <v>28.66305863449828</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447497</v>
+        <v>19.16049562447604</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767584</v>
+        <v>9.319542882768106</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608694</v>
+        <v>2.78809438460885</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731889942</v>
+        <v>0.6050197731890281</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344855</v>
+        <v>0.009875186722345407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486786</v>
+        <v>0.1258411772486857</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681098</v>
+        <v>1.118842466811043</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078445</v>
+        <v>3.784387403078657</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481578</v>
+        <v>8.896971231482077</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489193</v>
+        <v>14.62045677489275</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477173</v>
+        <v>18.70915102477278</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390815</v>
+        <v>19.7261765390826</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115463</v>
+        <v>19.2571321511557</v>
       </c>
       <c r="O10" t="n">
-        <v>17.7870783987496</v>
+        <v>17.78707839875059</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287654</v>
+        <v>15.2199183828774</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852344</v>
+        <v>10.53748257852403</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381494</v>
+        <v>5.658276933381811</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233789</v>
+        <v>2.193068516233912</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625358</v>
+        <v>0.5376850300625658</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564296</v>
+        <v>0.006864064213564681</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.73554120866</v>
+        <v>878.7355412086605</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36598,16 +36598,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>799.1386429889617</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>827.137011779456</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.922901277619</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637019</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>799.1386429889631</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737872</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554029</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
